--- a/results/FT_KP_P95_553_results.xlsx
+++ b/results/FT_KP_P95_553_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/437b0d8cdafbd5b9/Documents/Personal/Learning/UC Berkeley/MIDS/Courses/W266/Final Project/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundeepm\source\MIDS\w266\w266-final-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2D465A2201F194B534047CE5A9D9FA74264D207E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A375B5A6-46C8-4458-8D5D-7F83A609A66E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C837C0-84AA-4815-98D2-66B6C5B128B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8644,7 +8644,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8654,6 +8654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8685,12 +8691,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8997,13 +9006,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9029,7 +9039,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
